--- a/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,22</t>
+          <t>31,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,72</t>
+          <t>34,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>33,21</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,53; 33,16</t>
+          <t>29,41; 33,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,37; 36,2</t>
+          <t>33,37; 36,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,23; 34,41</t>
+          <t>32,14; 34,31</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,52</t>
+          <t>19,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>19,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 19,51</t>
+          <t>17,74; 19,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 21,01</t>
+          <t>18,74; 21,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,08</t>
+          <t>18,6; 21,04</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,5</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>17,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,64</t>
+          <t>15,81; 18,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 18,61</t>
+          <t>16,37; 18,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 18,24</t>
+          <t>16,47; 18,26</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,37</t>
+          <t>22,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,49</t>
+          <t>21,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 21,2</t>
+          <t>19,54; 21,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 22,95</t>
+          <t>21,71; 23,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 21,97</t>
+          <t>20,95; 22,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 33,1</t>
+          <t>29,1; 32,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,37; 36,08</t>
+          <t>33,18; 35,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,14; 34,31</t>
+          <t>32,14; 34,4</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,3</t>
+          <t>17,72; 19,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,94</t>
+          <t>18,7; 22,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,6; 21,04</t>
+          <t>18,58; 20,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,62</t>
+          <t>15,99; 18,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 18,65</t>
+          <t>16,48; 18,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 18,26</t>
+          <t>16,48; 18,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 21,0</t>
+          <t>19,57; 20,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 23,16</t>
+          <t>21,74; 23,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 22,04</t>
+          <t>20,94; 22,15</t>
         </is>
       </c>
     </row>
